--- a/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
+++ b/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/Berkeley/Post-Doc UCB/Research Projects/Fire-Water/Imagery Analysis/SEKI_Imagery_Analysis/Stevens_et_al_2020/Data/Weather Stations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB4173-C2B5-BD44-A5E1-5930DD51BEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFBE411-0468-B941-9347-8CB709C61D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="4280" windowWidth="27240" windowHeight="16440" xr2:uid="{4F67C016-16B0-B54C-A055-B9250B272889}"/>
+    <workbookView xWindow="15040" yWindow="3380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4F67C016-16B0-B54C-A055-B9250B272889}"/>
   </bookViews>
   <sheets>
     <sheet name="File_and_Variable_Names" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -84,33 +82,12 @@
     <t>ETo</t>
   </si>
   <si>
-    <t>VWC_Avg</t>
-  </si>
-  <si>
     <t>EC_Avg</t>
   </si>
   <si>
     <t>T_Avg</t>
   </si>
   <si>
-    <t>VWC_2_Avg</t>
-  </si>
-  <si>
-    <t>EC_2_Avg</t>
-  </si>
-  <si>
-    <t>T_2_Avg</t>
-  </si>
-  <si>
-    <t>VWC_3_Avg</t>
-  </si>
-  <si>
-    <t>EC_3_Avg</t>
-  </si>
-  <si>
-    <t>T_3_Avg</t>
-  </si>
-  <si>
     <t>WS_ms</t>
   </si>
   <si>
@@ -159,13 +136,124 @@
     <t>Variable Description</t>
   </si>
   <si>
-    <t>This database contains … Katya can you say something about the frequency of measurements, whether they were aggregated, etc.? Can be brief, just basicaly let the reader know what each line in in a given data table (A1-F1) represents.</t>
-  </si>
-  <si>
-    <t>(Katya you can pull from the metadata text file for basic ID info; might also be useful to put lat and long coordinates for each station here (embedded or a separate column for each station) if that's not too difficult.</t>
-  </si>
-  <si>
-    <t>Katya I know many of these are in the word doc; I think this format would improve readability. You can copy and paste.</t>
+    <t>ICB high severity dry ("Shrub") station; lat=37.676544, lon=-119.565413</t>
+  </si>
+  <si>
+    <t>ICB low severity wet ("Wetland") station; lat=37.675441, lon=-119.566771</t>
+  </si>
+  <si>
+    <t>ICB med severity closed canopy ("Forest") station; lat=37.675495, lon=-119.564904</t>
+  </si>
+  <si>
+    <t>SCB high severity wet ("Wetland"), lat=36.7120, lon= -118.690192</t>
+  </si>
+  <si>
+    <t>SCB high severity dry ("Shrub"), lat=36.713509, lon= -118.69065</t>
+  </si>
+  <si>
+    <t>SCB low severity closed canopy ("Forest"), lat=36.713422, lon= -118.691668</t>
+  </si>
+  <si>
+    <t>Time stamps, every 10 min</t>
+  </si>
+  <si>
+    <t>datalogger record number</t>
+  </si>
+  <si>
+    <t>minimum battery voltage; Volts</t>
+  </si>
+  <si>
+    <t>maximum battery temperatur; Deg C</t>
+  </si>
+  <si>
+    <t>total precip from tipping rain bucket; mm</t>
+  </si>
+  <si>
+    <t>average air temperature at ~2 meter height; deg C</t>
+  </si>
+  <si>
+    <t>average relative humidity at ~2 meter height; %</t>
+  </si>
+  <si>
+    <t>average solar radiation; kW/m^2</t>
+  </si>
+  <si>
+    <t>total solar radiation; MJ/m^2</t>
+  </si>
+  <si>
+    <t>maximum wind speed; m/sec</t>
+  </si>
+  <si>
+    <t>time of maximum wind speed</t>
+  </si>
+  <si>
+    <t>time of minimum battery voltage</t>
+  </si>
+  <si>
+    <t>time of maximum battery temperature</t>
+  </si>
+  <si>
+    <t>average wind direction; degrees (N=0)</t>
+  </si>
+  <si>
+    <t>Average shallow soil moisture at 12 cm; m^3/m^3</t>
+  </si>
+  <si>
+    <t>Average shallow soil conductance at 12 cm; dS/m</t>
+  </si>
+  <si>
+    <t>Average shallow soil temperature at 12 cm; deg C</t>
+  </si>
+  <si>
+    <t>Average mid depth moisture at 60 cm; m^3/m^3</t>
+  </si>
+  <si>
+    <t>Average mid depth soil conductance at 60 cm; dS/m</t>
+  </si>
+  <si>
+    <t>Average mid depth soil temperature at 60 cm; deg C</t>
+  </si>
+  <si>
+    <t>Average deep moisture at 100 cm; m^3/m^3</t>
+  </si>
+  <si>
+    <t>Average deep soil conductance at 100 cm; dS/m</t>
+  </si>
+  <si>
+    <t>Average deep depth soil temperature at 100 cm; deg C</t>
+  </si>
+  <si>
+    <t>VWC_Avg (ICB); VWC_0_Avg (SCB)</t>
+  </si>
+  <si>
+    <t>VWC_2_Avg (ICB); VWC_1_Avg (SCB)</t>
+  </si>
+  <si>
+    <t>VWC_3_Avg (ICB); VWC_2_Avg (SCB)</t>
+  </si>
+  <si>
+    <t>Comments on data quality</t>
+  </si>
+  <si>
+    <t>EC_2_Avg (ICB); EC_1_Avg (SCB)</t>
+  </si>
+  <si>
+    <t>T_2_Avg (ICB); T_1_Avg (SCB)</t>
+  </si>
+  <si>
+    <t>EC_3_Avg; (ICB); EC_2_Avg (SCB)</t>
+  </si>
+  <si>
+    <t>T_3_Avg (ICB); T_2_Avg (SCB)</t>
+  </si>
+  <si>
+    <t>average wind speed; m/s</t>
+  </si>
+  <si>
+    <t>Evapotranspiration [mm]; not accurate and not used</t>
+  </si>
+  <si>
+    <t>Data in files A1, B1, and C1 (Illilouette Creek Basin) and D1, E1, and F1 (Sugarloaf Creek Basin) is collected by Campbell Scientific datalogger CR1000 at a 10 min resolution. Some variables are aggregated over the 10 min period and others are provided as maximum and minimums. Data was quality controlled to remove any erroneous data due to equipment damage or human interference. Data is not gap-filled</t>
   </si>
 </sst>
 </file>
@@ -522,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8D068A-F893-734D-A6AA-E9157DDCE717}">
   <dimension ref="A3:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,244 +624,306 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -784,18 +934,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83481DBD-9F12-4347-AB9E-BC2D0109F4BF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="153" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
+++ b/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFBE411-0468-B941-9347-8CB709C61D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0948599B-FD77-284D-BA0E-0550C77FFD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15040" yWindow="3380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4F67C016-16B0-B54C-A055-B9250B272889}"/>
   </bookViews>

--- a/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
+++ b/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFBE411-0468-B941-9347-8CB709C61D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C161D08C-07EE-2847-AFEA-43B0F636110E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="3380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4F67C016-16B0-B54C-A055-B9250B272889}"/>
+    <workbookView xWindow="11560" yWindow="3380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4F67C016-16B0-B54C-A055-B9250B272889}"/>
   </bookViews>
   <sheets>
     <sheet name="File_and_Variable_Names" sheetId="1" r:id="rId1"/>

--- a/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
+++ b/Stevens_et_al_2020/Data/Weather Stations/WeatherStationMetadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/Berkeley/Post-Doc UCB/Research Projects/Fire-Water/Imagery Analysis/SEKI_Imagery_Analysis/Stevens_et_al_2020/Data/Weather Stations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C161D08C-07EE-2847-AFEA-43B0F636110E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABA5E9-47FB-0A4E-A0A8-169DE8EDFD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="3380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4F67C016-16B0-B54C-A055-B9250B272889}"/>
+    <workbookView xWindow="11560" yWindow="3380" windowWidth="27240" windowHeight="16440" xr2:uid="{4F67C016-16B0-B54C-A055-B9250B272889}"/>
   </bookViews>
   <sheets>
     <sheet name="File_and_Variable_Names" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -40,12 +40,6 @@
     <t>RECORD</t>
   </si>
   <si>
-    <t>BattV_Min</t>
-  </si>
-  <si>
-    <t>BattV_TMn</t>
-  </si>
-  <si>
     <t>PTemp_C_Max</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>T_Avg</t>
   </si>
   <si>
-    <t>WS_ms</t>
-  </si>
-  <si>
     <t>WS_ms_Avg</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>datalogger record number</t>
   </si>
   <si>
-    <t>minimum battery voltage; Volts</t>
-  </si>
-  <si>
     <t>maximum battery temperatur; Deg C</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
   </si>
   <si>
     <t>time of maximum wind speed</t>
-  </si>
-  <si>
-    <t>time of minimum battery voltage</t>
   </si>
   <si>
     <t>time of maximum battery temperature</t>
@@ -608,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8D068A-F893-734D-A6AA-E9157DDCE717}">
-  <dimension ref="A3:E31"/>
+  <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,109 +609,109 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -735,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -744,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -753,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -762,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -771,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -780,150 +765,131 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>14</v>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
-      <c r="D21" t="s">
-        <v>16</v>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
-      <c r="D22" t="s">
-        <v>17</v>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="68" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="68" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="68" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
+      <c r="D27" t="s">
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83481DBD-9F12-4347-AB9E-BC2D0109F4BF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -943,7 +909,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
